--- a/server/plugin/switch/excel2xmlTemplate.xlsx
+++ b/server/plugin/switch/excel2xmlTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17280" windowHeight="4920"/>
+    <workbookView windowWidth="18480" windowHeight="7845"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,24 +16,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
-    <t>OpMode</t>
+    <r>
+      <t>导入说明：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>橙色框内的为必填项，其他的没有就不填。在导入之前要删除本行,和示例数据。</t>
+    </r>
   </si>
   <si>
     <t>Ip</t>
   </si>
   <si>
-    <t>上级交换机</t>
+    <t>SwitchIpUpLayer</t>
   </si>
   <si>
-    <t>读共同体</t>
+    <t>ReadCommunity</t>
   </si>
   <si>
-    <t>写共同体</t>
-  </si>
-  <si>
-    <t>不管理端口</t>
+    <t>WriteCommunity</t>
   </si>
   <si>
     <t>vlanState</t>
@@ -42,13 +49,10 @@
     <t>PrivateBridge</t>
   </si>
   <si>
-    <t>snmp</t>
+    <t>15.225.250.220</t>
   </si>
   <si>
     <t>15.225.250.219</t>
-  </si>
-  <si>
-    <t>15.225.250.218</t>
   </si>
   <si>
     <t>public</t>
@@ -57,13 +61,7 @@
     <t>private</t>
   </si>
   <si>
-    <t>[20,21,22]</t>
-  </si>
-  <si>
-    <t>h3cs5500vlanaddin.dll'</t>
-  </si>
-  <si>
-    <t>'h3cs5500vlanaddin.dll'</t>
+    <t>h3cs5501vlanaddin.dll</t>
   </si>
 </sst>
 </file>
@@ -71,13 +69,29 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
-    <font>
+  <fonts count="25">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -92,116 +106,134 @@
     </font>
     <font>
       <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
       <color rgb="FF6A9955"/>
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,44 +249,20 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,31 +271,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,170 +461,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -469,16 +471,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -495,6 +521,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,34 +569,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -571,190 +588,202 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1100,95 +1129,109 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="14.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="21.375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="28.375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="24.875" style="3" customWidth="1"/>
-    <col min="10" max="14" width="9" style="3"/>
-    <col min="15" max="15" width="15.875" style="3" customWidth="1"/>
-    <col min="16" max="16" width="12.375" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="14.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="28.375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="24.875" style="4" customWidth="1"/>
+    <col min="7" max="11" width="9" style="4"/>
+    <col min="12" max="12" width="15.875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12.375" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:16">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+    </row>
+    <row r="3" s="3" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A2" s="2" t="s">
+      <c r="B3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6">
-        <v>1000</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="C3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>15</v>
+      <c r="F3" s="13" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="6" spans="4:4">
-      <c r="D6" s="10"/>
+    <row r="4" ht="14.25" spans="1:6">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" ht="14.25" spans="1:6">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:6">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:6">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
